--- a/Deepesh/PythonProgramming/PythonFile_Handling/handle_excel_file/users_data.xlsx
+++ b/Deepesh/PythonProgramming/PythonFile_Handling/handle_excel_file/users_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trainings\GTM_PS_Batch11_26May25\GTM_PS_BATCH11\Deepesh\PythonProgramming\PythonFile_Handling\handle_excel_file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonAutomation\GTM_PS_BATCH11\Deepesh\PythonProgramming\PythonFile_Handling\handle_excel_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E96172E-F918-48AF-95BB-D3CA6AE79C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0097AE2-3085-496E-87F7-04031B0D6070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>We are learning Python</t>
   </si>
@@ -65,6 +65,21 @@
   </si>
   <si>
     <t>Programming</t>
+  </si>
+  <si>
+    <t>powerI,excel,</t>
+  </si>
+  <si>
+    <t>tools</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>kafka, spark,sql, python,Hive</t>
+  </si>
+  <si>
+    <t>Data analytics</t>
   </si>
 </sst>
 </file>
@@ -383,35 +398,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
